--- a/samples/画像リスト.xlsx
+++ b/samples/画像リスト.xlsx
@@ -110,10 +110,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>トナカイ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>オコジョ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -151,13 +147,6 @@
   </si>
   <si>
     <t>いちごサンドイッチ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>みそ汁</t>
-    <rPh sb="2" eb="3">
-      <t>シル</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -192,7 +181,24 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カップラーメン</t>
+    <t>トナカイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カップラーメン\n（しょうゆ味）</t>
+    <rPh sb="14" eb="15">
+      <t>アジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みそ汁\n（豆腐とわかめ）</t>
+    <rPh sb="2" eb="3">
+      <t>シル</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウフ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -532,7 +538,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -554,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -562,7 +568,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -570,7 +576,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -578,7 +584,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -586,7 +592,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -594,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -602,7 +608,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -610,7 +616,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -618,7 +624,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -626,7 +632,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -634,7 +640,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -642,7 +648,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -650,7 +656,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -658,7 +664,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -666,7 +672,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -674,7 +680,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -682,7 +688,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -690,7 +696,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -698,7 +704,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -706,7 +712,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
